--- a/WechatBusinessPlatform/01system/01module/功能块安排.xlsx
+++ b/WechatBusinessPlatform/01system/01module/功能块安排.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GWP\WechatBusinessPlatform\01system\01module\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Github\WorkPlace\ssm\WechatBusinessPlatform\01system\01module\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13FCF916-E247-4DD8-8A0C-29C2A8F7B209}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE0F761E-CDE5-471D-8B71-B26F9734188D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9390" yWindow="4395" windowWidth="18705" windowHeight="11340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="51">
   <si>
     <t>模块</t>
   </si>
@@ -180,6 +180,49 @@
   </si>
   <si>
     <t>系统管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>范黎明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成员1</t>
+  </si>
+  <si>
+    <t>成员2：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卢泽阳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成员3：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李炳松</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成员4：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒙海</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成员5：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户/管理员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>袁智忠</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -333,7 +376,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -344,15 +387,27 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -362,18 +417,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -654,10 +698,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -667,7 +711,7 @@
     <col min="4" max="4" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -681,63 +725,94 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D2" s="3"/>
-    </row>
-    <row r="3" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="8"/>
-      <c r="B3" s="5"/>
+      <c r="J2" s="14"/>
+    </row>
+    <row r="3" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="12"/>
+      <c r="B3" s="10"/>
       <c r="C3" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="8"/>
-      <c r="B4" s="4" t="s">
+      <c r="H3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="12"/>
+      <c r="B4" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="8"/>
-      <c r="B5" s="5"/>
+      <c r="H4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="12"/>
+      <c r="B5" s="10"/>
       <c r="C5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="8"/>
-      <c r="B6" s="5"/>
+      <c r="H5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="12"/>
+      <c r="B6" s="10"/>
       <c r="C6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="8"/>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="12"/>
       <c r="B7" s="6"/>
       <c r="C7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="8"/>
-      <c r="B8" s="4" t="s">
+      <c r="H7" t="s">
+        <v>48</v>
+      </c>
+      <c r="I7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="12"/>
+      <c r="B8" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -745,25 +820,25 @@
       </c>
       <c r="D8" s="3"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="8"/>
-      <c r="B9" s="5"/>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="12"/>
+      <c r="B9" s="10"/>
       <c r="C9" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D9" s="3"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="8"/>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="12"/>
       <c r="B10" s="6"/>
       <c r="C10" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="8"/>
-      <c r="B11" s="4" t="s">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="12"/>
+      <c r="B11" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -771,17 +846,17 @@
       </c>
       <c r="D11" s="3"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="8"/>
-      <c r="B12" s="5"/>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="12"/>
+      <c r="B12" s="10"/>
       <c r="C12" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D12" s="3"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="8"/>
-      <c r="B13" s="4" t="s">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="12"/>
+      <c r="B13" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C13" s="3" t="s">
@@ -789,24 +864,24 @@
       </c>
       <c r="D13" s="3"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="8"/>
-      <c r="B14" s="5"/>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="12"/>
+      <c r="B14" s="10"/>
       <c r="C14" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D14" s="3"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="8"/>
-      <c r="B15" s="5"/>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="12"/>
+      <c r="B15" s="10"/>
       <c r="C15" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D15" s="3"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="9"/>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="13"/>
       <c r="B16" s="6"/>
       <c r="C16" s="3" t="s">
         <v>19</v>
@@ -814,10 +889,10 @@
       <c r="D16" s="3"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C17" s="3" t="s">
@@ -826,22 +901,24 @@
       <c r="D17" s="1"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
       <c r="C18" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D18" s="1"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="5"/>
-      <c r="B19" s="4" t="s">
+      <c r="A19" s="10"/>
+      <c r="B19" s="5" t="s">
         <v>25</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="1"/>
+      <c r="D19" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="6"/>
@@ -849,177 +926,170 @@
       <c r="C20" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="1"/>
+      <c r="D20" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="10"/>
+      <c r="C21" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="12"/>
-      <c r="B22" s="5"/>
+      <c r="A22" s="8"/>
+      <c r="B22" s="10"/>
       <c r="C22" s="6"/>
-      <c r="D22" s="1"/>
+      <c r="D22" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="12"/>
-      <c r="B23" s="4" t="s">
+      <c r="A23" s="8"/>
+      <c r="B23" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="1"/>
+      <c r="C23" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="12"/>
+      <c r="A24" s="8"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
-      <c r="D24" s="1"/>
+      <c r="D24" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="12"/>
-      <c r="B25" s="4" t="s">
+      <c r="A25" s="8"/>
+      <c r="B25" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="4"/>
+      <c r="C25" s="5"/>
       <c r="D25" s="1"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="12"/>
+      <c r="A26" s="8"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
       <c r="D26" s="1"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="12"/>
-      <c r="B27" s="4" t="s">
+      <c r="A27" s="8"/>
+      <c r="B27" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="4"/>
+      <c r="C27" s="5"/>
       <c r="D27" s="1"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="13"/>
+      <c r="A28" s="9"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
       <c r="D28" s="1"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="4"/>
+      <c r="C29" s="5"/>
       <c r="D29" s="1"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="12"/>
-      <c r="B30" s="5"/>
+      <c r="A30" s="8"/>
+      <c r="B30" s="10"/>
       <c r="C30" s="6"/>
       <c r="D30" s="1"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="12"/>
-      <c r="B31" s="4" t="s">
+      <c r="A31" s="8"/>
+      <c r="B31" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C31" s="4"/>
+      <c r="C31" s="5"/>
       <c r="D31" s="1"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="12"/>
+      <c r="A32" s="8"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
       <c r="D32" s="1"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="12"/>
-      <c r="B33" s="4" t="s">
+      <c r="A33" s="8"/>
+      <c r="B33" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C33" s="4"/>
+      <c r="C33" s="5"/>
       <c r="D33" s="1"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="12"/>
+      <c r="A34" s="8"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
       <c r="D34" s="1"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="12"/>
-      <c r="B35" s="4" t="s">
+      <c r="A35" s="8"/>
+      <c r="B35" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C35" s="4"/>
+      <c r="C35" s="5"/>
       <c r="D35" s="1"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="12"/>
+      <c r="A36" s="8"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
       <c r="D36" s="1"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="12"/>
-      <c r="B37" s="4" t="s">
+      <c r="A37" s="8"/>
+      <c r="B37" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C37" s="4"/>
+      <c r="C37" s="5"/>
       <c r="D37" s="1"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="12"/>
+      <c r="A38" s="8"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
       <c r="D38" s="1"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="12"/>
-      <c r="B39" s="4" t="s">
+      <c r="A39" s="8"/>
+      <c r="B39" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C39" s="4"/>
+      <c r="C39" s="5"/>
       <c r="D39" s="1"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="13"/>
+      <c r="A40" s="9"/>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
       <c r="D40" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="A29:A40"/>
-    <mergeCell ref="A21:A28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="A2:A16"/>
     <mergeCell ref="B13:B16"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C23:C24"/>
@@ -1028,7 +1098,28 @@
     <mergeCell ref="B4:B7"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="B8:B10"/>
-    <mergeCell ref="A2:A16"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="A21:A28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="A29:A40"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/WechatBusinessPlatform/01system/01module/功能块安排.xlsx
+++ b/WechatBusinessPlatform/01system/01module/功能块安排.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Github\WorkPlace\ssm\WechatBusinessPlatform\01system\01module\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE0F761E-CDE5-471D-8B71-B26F9734188D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC7C254D-F657-415B-8EBC-D303B905582D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="51">
   <si>
     <t>模块</t>
   </si>
@@ -390,9 +390,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -405,19 +418,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -701,7 +701,7 @@
   <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -726,20 +726,20 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="9" t="s">
         <v>20</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D2" s="3"/>
-      <c r="J2" s="14"/>
+      <c r="J2" s="5"/>
     </row>
     <row r="3" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="12"/>
+      <c r="A3" s="7"/>
       <c r="B3" s="10"/>
       <c r="C3" s="3" t="s">
         <v>22</v>
@@ -753,8 +753,8 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="12"/>
-      <c r="B4" s="5" t="s">
+      <c r="A4" s="7"/>
+      <c r="B4" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -769,7 +769,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="12"/>
+      <c r="A5" s="7"/>
       <c r="B5" s="10"/>
       <c r="C5" s="3" t="s">
         <v>4</v>
@@ -783,7 +783,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="12"/>
+      <c r="A6" s="7"/>
       <c r="B6" s="10"/>
       <c r="C6" s="3" t="s">
         <v>5</v>
@@ -797,8 +797,8 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="12"/>
-      <c r="B7" s="6"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="11"/>
       <c r="C7" s="3" t="s">
         <v>6</v>
       </c>
@@ -811,8 +811,8 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="12"/>
-      <c r="B8" s="5" t="s">
+      <c r="A8" s="7"/>
+      <c r="B8" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -821,7 +821,7 @@
       <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="12"/>
+      <c r="A9" s="7"/>
       <c r="B9" s="10"/>
       <c r="C9" s="3" t="s">
         <v>12</v>
@@ -829,16 +829,16 @@
       <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="12"/>
-      <c r="B10" s="6"/>
+      <c r="A10" s="7"/>
+      <c r="B10" s="11"/>
       <c r="C10" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="12"/>
-      <c r="B11" s="5" t="s">
+      <c r="A11" s="7"/>
+      <c r="B11" s="9" t="s">
         <v>14</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -847,7 +847,7 @@
       <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="12"/>
+      <c r="A12" s="7"/>
       <c r="B12" s="10"/>
       <c r="C12" s="3" t="s">
         <v>12</v>
@@ -855,8 +855,8 @@
       <c r="D12" s="3"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="12"/>
-      <c r="B13" s="5" t="s">
+      <c r="A13" s="7"/>
+      <c r="B13" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C13" s="3" t="s">
@@ -865,7 +865,7 @@
       <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="12"/>
+      <c r="A14" s="7"/>
       <c r="B14" s="10"/>
       <c r="C14" s="3" t="s">
         <v>17</v>
@@ -873,7 +873,7 @@
       <c r="D14" s="3"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="12"/>
+      <c r="A15" s="7"/>
       <c r="B15" s="10"/>
       <c r="C15" s="3" t="s">
         <v>18</v>
@@ -881,18 +881,18 @@
       <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="13"/>
-      <c r="B16" s="6"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="11"/>
       <c r="C16" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D16" s="3"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C17" s="3" t="s">
@@ -910,7 +910,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="10"/>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C19" s="3" t="s">
@@ -921,23 +921,21 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
       <c r="C20" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>40</v>
-      </c>
+      <c r="D20" s="1"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="9" t="s">
         <v>49</v>
       </c>
       <c r="D21" s="1" t="s">
@@ -946,19 +944,19 @@
       <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="8"/>
+      <c r="A22" s="13"/>
       <c r="B22" s="10"/>
-      <c r="C22" s="6"/>
+      <c r="C22" s="11"/>
       <c r="D22" s="1" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="8"/>
-      <c r="B23" s="5" t="s">
+      <c r="A23" s="13"/>
+      <c r="B23" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="9" t="s">
         <v>49</v>
       </c>
       <c r="D23" s="1" t="s">
@@ -966,134 +964,143 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="8"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
+      <c r="A24" s="13"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
       <c r="D24" s="1" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="8"/>
-      <c r="B25" s="5" t="s">
+      <c r="A25" s="13"/>
+      <c r="B25" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="5"/>
+      <c r="C25" s="9"/>
       <c r="D25" s="1"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="8"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
+      <c r="A26" s="13"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
       <c r="D26" s="1"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="8"/>
-      <c r="B27" s="5" t="s">
+      <c r="A27" s="13"/>
+      <c r="B27" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="5"/>
+      <c r="C27" s="9"/>
       <c r="D27" s="1"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="9"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
+      <c r="A28" s="14"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
       <c r="D28" s="1"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="5"/>
+      <c r="C29" s="9"/>
       <c r="D29" s="1"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="8"/>
+      <c r="A30" s="13"/>
       <c r="B30" s="10"/>
-      <c r="C30" s="6"/>
+      <c r="C30" s="11"/>
       <c r="D30" s="1"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="8"/>
-      <c r="B31" s="5" t="s">
+      <c r="A31" s="13"/>
+      <c r="B31" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C31" s="5"/>
+      <c r="C31" s="9"/>
       <c r="D31" s="1"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="8"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
+      <c r="A32" s="13"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
       <c r="D32" s="1"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="8"/>
-      <c r="B33" s="5" t="s">
+      <c r="A33" s="13"/>
+      <c r="B33" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C33" s="5"/>
+      <c r="C33" s="9"/>
       <c r="D33" s="1"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="8"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
+      <c r="A34" s="13"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
       <c r="D34" s="1"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="8"/>
-      <c r="B35" s="5" t="s">
+      <c r="A35" s="13"/>
+      <c r="B35" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C35" s="5"/>
+      <c r="C35" s="9"/>
       <c r="D35" s="1"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="8"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
+      <c r="A36" s="13"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
       <c r="D36" s="1"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="8"/>
-      <c r="B37" s="5" t="s">
+      <c r="A37" s="13"/>
+      <c r="B37" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C37" s="5"/>
+      <c r="C37" s="9"/>
       <c r="D37" s="1"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="8"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
+      <c r="A38" s="13"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
       <c r="D38" s="1"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="8"/>
-      <c r="B39" s="5" t="s">
+      <c r="A39" s="13"/>
+      <c r="B39" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C39" s="5"/>
+      <c r="C39" s="9"/>
       <c r="D39" s="1"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="9"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
+      <c r="A40" s="14"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
       <c r="D40" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A2:A16"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="A29:A40"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="B27:B28"/>
     <mergeCell ref="C27:C28"/>
     <mergeCell ref="B4:B7"/>
     <mergeCell ref="B11:B12"/>
@@ -1105,21 +1112,12 @@
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="A21:A28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="B27:B28"/>
     <mergeCell ref="C21:C22"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="A29:A40"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="A2:A16"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C25:C26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/WechatBusinessPlatform/01system/01module/功能块安排.xlsx
+++ b/WechatBusinessPlatform/01system/01module/功能块安排.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Github\WorkPlace\ssm\WechatBusinessPlatform\01system\01module\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC7C254D-F657-415B-8EBC-D303B905582D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02A2EC82-8D5D-43DD-8A21-F085AFC394DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="54">
   <si>
     <t>模块</t>
   </si>
@@ -223,6 +223,18 @@
   </si>
   <si>
     <t>袁智忠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒙海</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卢泽阳</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -376,7 +388,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -387,10 +399,25 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -400,23 +427,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -701,7 +719,7 @@
   <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -724,27 +742,32 @@
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="E1" s="14" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="2" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D2" s="3"/>
-      <c r="J2" s="5"/>
+      <c r="E2" s="15"/>
+      <c r="J2" s="4"/>
     </row>
     <row r="3" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="7"/>
+      <c r="A3" s="12"/>
       <c r="B3" s="10"/>
       <c r="C3" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="3"/>
+      <c r="E3" s="15"/>
       <c r="H3" t="s">
         <v>41</v>
       </c>
@@ -753,14 +776,15 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="7"/>
-      <c r="B4" s="9" t="s">
+      <c r="A4" s="12"/>
+      <c r="B4" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="3"/>
+      <c r="E4" s="15"/>
       <c r="H4" t="s">
         <v>42</v>
       </c>
@@ -769,12 +793,13 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="7"/>
+      <c r="A5" s="12"/>
       <c r="B5" s="10"/>
       <c r="C5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="3"/>
+      <c r="E5" s="15"/>
       <c r="H5" t="s">
         <v>44</v>
       </c>
@@ -783,12 +808,13 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="7"/>
+      <c r="A6" s="12"/>
       <c r="B6" s="10"/>
       <c r="C6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="3"/>
+      <c r="E6" s="15"/>
       <c r="H6" t="s">
         <v>46</v>
       </c>
@@ -797,12 +823,13 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="7"/>
-      <c r="B7" s="11"/>
+      <c r="A7" s="12"/>
+      <c r="B7" s="6"/>
       <c r="C7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="3"/>
+      <c r="E7" s="15"/>
       <c r="H7" t="s">
         <v>48</v>
       </c>
@@ -811,106 +838,117 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="7"/>
-      <c r="B8" s="9" t="s">
+      <c r="A8" s="12"/>
+      <c r="B8" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="3"/>
+      <c r="E8" s="15"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="7"/>
+      <c r="A9" s="12"/>
       <c r="B9" s="10"/>
       <c r="C9" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D9" s="3"/>
+      <c r="E9" s="15"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="7"/>
-      <c r="B10" s="11"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="6"/>
       <c r="C10" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="3"/>
+      <c r="E10" s="15"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="7"/>
-      <c r="B11" s="9" t="s">
+      <c r="A11" s="12"/>
+      <c r="B11" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D11" s="3"/>
+      <c r="E11" s="15"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="7"/>
+      <c r="A12" s="12"/>
       <c r="B12" s="10"/>
       <c r="C12" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D12" s="3"/>
+      <c r="E12" s="15"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="7"/>
-      <c r="B13" s="9" t="s">
+      <c r="A13" s="12"/>
+      <c r="B13" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D13" s="3"/>
+      <c r="E13" s="15"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="7"/>
+      <c r="A14" s="12"/>
       <c r="B14" s="10"/>
       <c r="C14" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D14" s="3"/>
+      <c r="E14" s="15"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="7"/>
+      <c r="A15" s="12"/>
       <c r="B15" s="10"/>
       <c r="C15" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D15" s="3"/>
+      <c r="E15" s="15"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="8"/>
-      <c r="B16" s="11"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="6"/>
       <c r="C16" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D16" s="3"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="9" t="s">
+      <c r="E16" s="15"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E17" s="15"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
       <c r="C18" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E18" s="15"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="10"/>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="5" t="s">
         <v>25</v>
       </c>
       <c r="C19" s="3" t="s">
@@ -919,174 +957,224 @@
       <c r="D19" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
+      <c r="E19" s="15"/>
+      <c r="F19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
       <c r="C20" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="12" t="s">
+      <c r="E20" s="15"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="5" t="s">
         <v>49</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E21" s="4"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="13"/>
+      <c r="E21" s="15"/>
+      <c r="F21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="8"/>
       <c r="B22" s="10"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="13"/>
-      <c r="B23" s="9" t="s">
+      <c r="C22" s="6"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="15"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="8"/>
+      <c r="B23" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="5" t="s">
         <v>49</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="13"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
+        <v>51</v>
+      </c>
+      <c r="E23" s="15"/>
+      <c r="F23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="8"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
       <c r="D24" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="13"/>
-      <c r="B25" s="9" t="s">
+      <c r="E24" s="15"/>
+      <c r="F24" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="8"/>
+      <c r="B25" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="9"/>
+      <c r="C25" s="5"/>
       <c r="D25" s="1"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="13"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
+      <c r="E25" s="15"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="8"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
       <c r="D26" s="1"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="13"/>
-      <c r="B27" s="9" t="s">
+      <c r="E26" s="15"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="8"/>
+      <c r="B27" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="9"/>
+      <c r="C27" s="5"/>
       <c r="D27" s="1"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="14"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
+      <c r="E27" s="15"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="9"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
       <c r="D28" s="1"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="12" t="s">
+      <c r="E28" s="15"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="9"/>
+      <c r="C29" s="5"/>
       <c r="D29" s="1"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="13"/>
+      <c r="E29" s="15"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="8"/>
       <c r="B30" s="10"/>
-      <c r="C30" s="11"/>
+      <c r="C30" s="6"/>
       <c r="D30" s="1"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="13"/>
-      <c r="B31" s="9" t="s">
+      <c r="E30" s="15"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="8"/>
+      <c r="B31" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C31" s="9"/>
+      <c r="C31" s="5"/>
       <c r="D31" s="1"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="13"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
+      <c r="E31" s="15"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="8"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
       <c r="D32" s="1"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="13"/>
-      <c r="B33" s="9" t="s">
+      <c r="E32" s="15"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="8"/>
+      <c r="B33" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C33" s="9"/>
+      <c r="C33" s="5"/>
       <c r="D33" s="1"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="13"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
+      <c r="E33" s="15"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="8"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
       <c r="D34" s="1"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="13"/>
-      <c r="B35" s="9" t="s">
+      <c r="E34" s="15"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="8"/>
+      <c r="B35" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C35" s="9"/>
+      <c r="C35" s="5"/>
       <c r="D35" s="1"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="13"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
+      <c r="E35" s="15"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="8"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
       <c r="D36" s="1"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="13"/>
-      <c r="B37" s="9" t="s">
+      <c r="E36" s="15"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="8"/>
+      <c r="B37" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C37" s="9"/>
+      <c r="C37" s="5"/>
       <c r="D37" s="1"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="13"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
+      <c r="E37" s="15"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="8"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
       <c r="D38" s="1"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="13"/>
-      <c r="B39" s="9" t="s">
+      <c r="E38" s="15"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="8"/>
+      <c r="B39" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C39" s="9"/>
+      <c r="C39" s="5"/>
       <c r="D39" s="1"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="14"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
+      <c r="E39" s="15"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="9"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
       <c r="D40" s="1"/>
+      <c r="E40" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="31">
+  <mergeCells count="32">
+    <mergeCell ref="E1:E40"/>
+    <mergeCell ref="A2:A16"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="A21:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C21:C22"/>
     <mergeCell ref="B37:B38"/>
     <mergeCell ref="C37:C38"/>
     <mergeCell ref="B39:B40"/>
@@ -1100,24 +1188,6 @@
     <mergeCell ref="C29:C30"/>
     <mergeCell ref="B31:B32"/>
     <mergeCell ref="C31:C32"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="A21:A28"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="A2:A16"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C25:C26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
